--- a/story_data.xlsx
+++ b/story_data.xlsx
@@ -1,37 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\python\hide-seek-adv\hsa-web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E98F99-0B35-4AAF-BDDC-24559B456967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+  <si>
+    <t>node_key</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>choice_q</t>
+  </si>
+  <si>
+    <t>next_q</t>
+  </si>
+  <si>
+    <t>choice_w</t>
+  </si>
+  <si>
+    <t>next_w</t>
+  </si>
+  <si>
+    <t>choice_e</t>
+  </si>
+  <si>
+    <t>next_e</t>
+  </si>
+  <si>
+    <t>choice_r</t>
+  </si>
+  <si>
+    <t>next_r</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Look around</t>
+  </si>
+  <si>
+    <t>look_around</t>
+  </si>
+  <si>
+    <t>Inspect the restraints.</t>
+  </si>
+  <si>
+    <t>inspect_restraints</t>
+  </si>
+  <si>
+    <t>Look around where you are.</t>
+  </si>
+  <si>
+    <t>You are cute princess, but you found yourself in a dark room. Your wrists appears to be bound with chains.  What do you do?</t>
+  </si>
+  <si>
+    <t>Rmember how you end up here.</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>Walk away.</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>It’s a heavy iron old chain.  The other end is hung from the puley at the ceiling.</t>
+  </si>
+  <si>
+    <t>Pull the chain.</t>
+  </si>
+  <si>
+    <t>pull_chain</t>
+  </si>
+  <si>
+    <t>The chain made a rattle.  No sign of losening.  You are just thirteen years old girl, after all.</t>
+  </si>
+  <si>
+    <t>Make a sigh.</t>
+  </si>
+  <si>
+    <t>You remembered the bad guys overwellmed the catsle.  Where are everybody?</t>
+  </si>
+  <si>
+    <t>Its too dark too see.</t>
+  </si>
+  <si>
+    <t>Think again.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +144,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,176 +474,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>node_key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>choice_q</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_q</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>choice_w</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>next_w</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>choice_e</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>next_e</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>choice_r</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>next_r</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>You find yourself in a dark forest. What do you do?</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Explore the forest</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>explore_forest</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Set up camp</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>camp</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Climb a tree</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>climb_tree</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Walk back</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
+    <row r="2" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>explore_forest</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>You venture deeper and find a clearing with a pond.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Drink water</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>drink_water</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Look around</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>look_around</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Go fishing</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>go_fishing</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Return to the forest entrance</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
+    <row r="3" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/story_data.xlsx
+++ b/story_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\python\hide-seek-adv\hsa-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E98F99-0B35-4AAF-BDDC-24559B456967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD496A-AD15-4291-BC26-872A60A5F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>node_key</t>
   </si>
@@ -55,58 +55,73 @@
     <t>start</t>
   </si>
   <si>
-    <t>Look around</t>
-  </si>
-  <si>
     <t>look_around</t>
   </si>
   <si>
-    <t>Inspect the restraints.</t>
-  </si>
-  <si>
     <t>inspect_restraints</t>
   </si>
   <si>
-    <t>Look around where you are.</t>
-  </si>
-  <si>
-    <t>You are cute princess, but you found yourself in a dark room. Your wrists appears to be bound with chains.  What do you do?</t>
-  </si>
-  <si>
-    <t>Rmember how you end up here.</t>
-  </si>
-  <si>
     <t>remember</t>
   </si>
   <si>
-    <t>Walk away.</t>
-  </si>
-  <si>
     <t>walk</t>
   </si>
   <si>
-    <t>It’s a heavy iron old chain.  The other end is hung from the puley at the ceiling.</t>
-  </si>
-  <si>
-    <t>Pull the chain.</t>
-  </si>
-  <si>
     <t>pull_chain</t>
   </si>
   <si>
-    <t>The chain made a rattle.  No sign of losening.  You are just thirteen years old girl, after all.</t>
-  </si>
-  <si>
-    <t>Make a sigh.</t>
-  </si>
-  <si>
-    <t>You remembered the bad guys overwellmed the catsle.  Where are everybody?</t>
-  </si>
-  <si>
-    <t>Its too dark too see.</t>
-  </si>
-  <si>
-    <t>Think again.</t>
+    <t>You are a delicate princess, but you awaken to find yourself in a dimly lit room. Your wrists are bound by cold, heavy chains. What will you do next?</t>
+  </si>
+  <si>
+    <t>Examine the chains.</t>
+  </si>
+  <si>
+    <t>Survey your surroundings.</t>
+  </si>
+  <si>
+    <t>Try to recall how you got here.</t>
+  </si>
+  <si>
+    <t>Attempt to walk away.</t>
+  </si>
+  <si>
+    <t>The chains are made of heavy iron, aged by time. The other end is attached to a pulley hanging from the ceiling.</t>
+  </si>
+  <si>
+    <t>Tug at the chains.</t>
+  </si>
+  <si>
+    <t>Glance around the room.</t>
+  </si>
+  <si>
+    <t>Let out a deep sigh.</t>
+  </si>
+  <si>
+    <t>Reconsider your options.</t>
+  </si>
+  <si>
+    <t>Sigh in frustration.</t>
+  </si>
+  <si>
+    <t>Memories flood back. Sinister figures overran the castle. Where could everyone be?</t>
+  </si>
+  <si>
+    <t>Sigh in despair.</t>
+  </si>
+  <si>
+    <t>The chains rattle loudly against your efforts, showing no signs of giving way. After all, you're but a thirteen-year-old girl.</t>
+  </si>
+  <si>
+    <t>Sigh in resignation.</t>
+  </si>
+  <si>
+    <t>Despite your efforts, the chains remain steadfast. Their cold embrace reminds you of your vulnerability as a young thirteen-year-old girl.</t>
+  </si>
+  <si>
+    <t>Sigh in defeat.</t>
+  </si>
+  <si>
+    <t>The darkness is thick, making it difficult to discern any details.</t>
   </si>
 </sst>
 </file>
@@ -162,15 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,9 +489,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -513,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -521,33 +538,33 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="174" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -556,82 +573,106 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
